--- a/Employee_Info/Resource_avilability.xlsx
+++ b/Employee_Info/Resource_avilability.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JAGADEESH\Palamrutha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JAGADEESH\Git\WeDoInnovation\Employee_Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>SLNO</t>
   </si>
@@ -446,7 +446,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +483,9 @@
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
@@ -497,7 +499,9 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
@@ -511,7 +515,9 @@
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
@@ -525,7 +531,9 @@
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
@@ -539,7 +547,9 @@
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>

--- a/Employee_Info/Resource_avilability.xlsx
+++ b/Employee_Info/Resource_avilability.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>SLNO</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>SRNSDVG</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +492,9 @@
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">

--- a/Employee_Info/Resource_avilability.xlsx
+++ b/Employee_Info/Resource_avilability.xlsx
@@ -69,7 +69,7 @@
     <t>SRNSDVG</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>Jaga</t>
   </si>
 </sst>
 </file>
@@ -85,7 +85,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +107,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -163,6 +169,7 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,7 +456,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +499,7 @@
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="1"/>

--- a/Employee_Info/Resource_avilability.xlsx
+++ b/Employee_Info/Resource_avilability.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>SLNO</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>SRNSDVG</t>
-  </si>
-  <si>
-    <t>Jaga</t>
   </si>
 </sst>
 </file>
@@ -85,7 +82,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,12 +104,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -169,7 +160,7 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +447,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,9 +490,7 @@
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="E2" s="10"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
